--- a/auto_infterface_case/test_data/test_case.xlsx
+++ b/auto_infterface_case/test_data/test_case.xlsx
@@ -59,7 +59,7 @@
     <t>{'mobilephone':'13541122222','pwd':'123456'}</t>
   </si>
   <si>
-    <t>{'code': '20110', 'status': 0, 'data': None, 'msg': '手机号码已被注册'}</t>
+    <t>{'data': None, 'code': '20110', 'msg': '手机号码已被注册', 'status': 0}</t>
   </si>
   <si>
     <t>FAIL</t>
@@ -71,7 +71,7 @@
     <t>{'mobilephone':'13541122222','pwd':''}</t>
   </si>
   <si>
-    <t>{'code': '20103', 'status': 0, 'data': None, 'msg': '密码不能为空'}</t>
+    <t>{'data': None, 'code': '20103', 'msg': '密码不能为空', 'status': 0}</t>
   </si>
   <si>
     <t>PASS</t>
@@ -83,7 +83,7 @@
     <t>{'mobilephone':'135411463110','pwd':'123456'}</t>
   </si>
   <si>
-    <t>{'code': '20109', 'status': 0, 'data': None, 'msg': '手机号码格式不正确'}</t>
+    <t>{'data': None, 'code': '20109', 'msg': '手机号码格式不正确', 'status': 0}</t>
   </si>
   <si>
     <t>登录</t>
@@ -95,7 +95,7 @@
     <t>futureloan/mvc/api/member/login</t>
   </si>
   <si>
-    <t>{'code': '10001', 'status': 1, 'data': None, 'msg': '登录成功'}</t>
+    <t>{'data': None, 'code': '10001', 'msg': '登录成功', 'status': 1}</t>
   </si>
   <si>
     <t>手机号为空</t>
@@ -104,7 +104,7 @@
     <t>{'mobilephone':'','pwd':'123456'}</t>
   </si>
   <si>
-    <t>{'code': '20103', 'status': 0, 'data': None, 'msg': '手机号不能为空'}</t>
+    <t>{'data': None, 'code': '20103', 'msg': '手机号不能为空', 'status': 0}</t>
   </si>
   <si>
     <t>密码错误</t>
@@ -113,7 +113,7 @@
     <t>{'mobilephone':'13541122222','pwd':'126'}</t>
   </si>
   <si>
-    <t>{'code': '20111', 'status': 0, 'data': None, 'msg': '用户名或密码错误'}</t>
+    <t>{'data': None, 'code': '20111', 'msg': '用户名或密码错误', 'status': 0}</t>
   </si>
   <si>
     <t>充值</t>
@@ -128,7 +128,7 @@
     <t>{'mobilephone':'13541122222','amount':'1000'}</t>
   </si>
   <si>
-    <t>{'code': '10001', 'status': 1, 'data': {'regname': '小蜜蜂', 'id': 13240, 'leaveamount': '17000.00', 'type': '1', 'mobilephone': '13541122222', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'regtime': '2018-06-28 23:42:57.0'}, 'msg': '充值成功'}</t>
+    <t>{'data': {'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '13541122222', 'leaveamount': '20000.00', 'regname': '小蜜蜂', 'id': 13240, 'regtime': '2018-06-28 23:42:57.0', 'type': '1'}, 'code': '10001', 'msg': '充值成功', 'status': 1}</t>
   </si>
   <si>
     <t>手机号不存在</t>
@@ -137,7 +137,7 @@
     <t>{'mobilephone':'15901129231','amount':'1000.05'}</t>
   </si>
   <si>
-    <t>{'code': '20104', 'status': 0, 'data': None, 'msg': '此手机号对应的会员不存在'}</t>
+    <t>{'data': None, 'code': '20104', 'msg': '此手机号对应的会员不存在', 'status': 0}</t>
   </si>
   <si>
     <t>金额小数大于2位</t>
@@ -146,7 +146,7 @@
     <t>{'mobilephone':'13541122222','amount':'1000.321'}</t>
   </si>
   <si>
-    <t>{'code': '20116', 'status': 0, 'data': None, 'msg': '输入金额的金额小数不能超过两位'}</t>
+    <t>{'data': None, 'code': '20116', 'msg': '输入金额的金额小数不能超过两位', 'status': 0}</t>
   </si>
 </sst>
 </file>

--- a/auto_infterface_case/test_data/test_case.xlsx
+++ b/auto_infterface_case/test_data/test_case.xlsx
@@ -59,7 +59,7 @@
     <t>{'mobilephone':'13541122222','pwd':'123456'}</t>
   </si>
   <si>
-    <t>{'data': None, 'code': '20110', 'msg': '手机号码已被注册', 'status': 0}</t>
+    <t>{'status': 0, 'code': '20110', 'data': None, 'msg': '手机号码已被注册'}</t>
   </si>
   <si>
     <t>FAIL</t>
@@ -71,7 +71,7 @@
     <t>{'mobilephone':'13541122222','pwd':''}</t>
   </si>
   <si>
-    <t>{'data': None, 'code': '20103', 'msg': '密码不能为空', 'status': 0}</t>
+    <t>{'status': 0, 'code': '20103', 'data': None, 'msg': '密码不能为空'}</t>
   </si>
   <si>
     <t>PASS</t>
@@ -83,7 +83,7 @@
     <t>{'mobilephone':'135411463110','pwd':'123456'}</t>
   </si>
   <si>
-    <t>{'data': None, 'code': '20109', 'msg': '手机号码格式不正确', 'status': 0}</t>
+    <t>{'status': 0, 'code': '20109', 'data': None, 'msg': '手机号码格式不正确'}</t>
   </si>
   <si>
     <t>登录</t>
@@ -95,7 +95,7 @@
     <t>futureloan/mvc/api/member/login</t>
   </si>
   <si>
-    <t>{'data': None, 'code': '10001', 'msg': '登录成功', 'status': 1}</t>
+    <t>{'status': 1, 'code': '10001', 'data': None, 'msg': '登录成功'}</t>
   </si>
   <si>
     <t>手机号为空</t>
@@ -104,7 +104,7 @@
     <t>{'mobilephone':'','pwd':'123456'}</t>
   </si>
   <si>
-    <t>{'data': None, 'code': '20103', 'msg': '手机号不能为空', 'status': 0}</t>
+    <t>{'status': 0, 'code': '20103', 'data': None, 'msg': '手机号不能为空'}</t>
   </si>
   <si>
     <t>密码错误</t>
@@ -113,7 +113,7 @@
     <t>{'mobilephone':'13541122222','pwd':'126'}</t>
   </si>
   <si>
-    <t>{'data': None, 'code': '20111', 'msg': '用户名或密码错误', 'status': 0}</t>
+    <t>{'status': 0, 'code': '20111', 'data': None, 'msg': '用户名或密码错误'}</t>
   </si>
   <si>
     <t>充值</t>
@@ -128,7 +128,7 @@
     <t>{'mobilephone':'13541122222','amount':'1000'}</t>
   </si>
   <si>
-    <t>{'data': {'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '13541122222', 'leaveamount': '20000.00', 'regname': '小蜜蜂', 'id': 13240, 'regtime': '2018-06-28 23:42:57.0', 'type': '1'}, 'code': '10001', 'msg': '充值成功', 'status': 1}</t>
+    <t>{'status': 1, 'code': '10001', 'data': {'type': '1', 'leaveamount': '21000.00', 'regtime': '2018-06-28 23:42:57.0', 'id': 13240, 'regname': '小蜜蜂', 'mobilephone': '13541122222', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E'}, 'msg': '充值成功'}</t>
   </si>
   <si>
     <t>手机号不存在</t>
@@ -137,7 +137,7 @@
     <t>{'mobilephone':'15901129231','amount':'1000.05'}</t>
   </si>
   <si>
-    <t>{'data': None, 'code': '20104', 'msg': '此手机号对应的会员不存在', 'status': 0}</t>
+    <t>{'status': 0, 'code': '20104', 'data': None, 'msg': '此手机号对应的会员不存在'}</t>
   </si>
   <si>
     <t>金额小数大于2位</t>
@@ -146,7 +146,7 @@
     <t>{'mobilephone':'13541122222','amount':'1000.321'}</t>
   </si>
   <si>
-    <t>{'data': None, 'code': '20116', 'msg': '输入金额的金额小数不能超过两位', 'status': 0}</t>
+    <t>{'status': 0, 'code': '20116', 'data': None, 'msg': '输入金额的金额小数不能超过两位'}</t>
   </si>
 </sst>
 </file>

--- a/auto_infterface_case/test_data/test_case.xlsx
+++ b/auto_infterface_case/test_data/test_case.xlsx
@@ -3,11 +3,11 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="425" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="425" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
     <sheet name="test_data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="case" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="init" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>case_id</t>
   </si>
@@ -56,13 +56,13 @@
     <t>futureloan/mvc/api/member/register</t>
   </si>
   <si>
-    <t>{'mobilephone':'13541122222','pwd':'123456'}</t>
-  </si>
-  <si>
-    <t>{'status': 0, 'code': '20110', 'data': None, 'msg': '手机号码已被注册'}</t>
-  </si>
-  <si>
-    <t>FAIL</t>
+    <t>{'mobilephone': 'first_tel','pwd':'123456'}</t>
+  </si>
+  <si>
+    <t>{'status': 1, 'data': None, 'msg': '注册成功', 'code': '10001'}</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
   <si>
     <t>密码为空</t>
@@ -71,21 +71,12 @@
     <t>{'mobilephone':'13541122222','pwd':''}</t>
   </si>
   <si>
-    <t>{'status': 0, 'code': '20103', 'data': None, 'msg': '密码不能为空'}</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>手机格式不正确</t>
   </si>
   <si>
     <t>{'mobilephone':'135411463110','pwd':'123456'}</t>
   </si>
   <si>
-    <t>{'status': 0, 'code': '20109', 'data': None, 'msg': '手机号码格式不正确'}</t>
-  </si>
-  <si>
     <t>登录</t>
   </si>
   <si>
@@ -95,7 +86,7 @@
     <t>futureloan/mvc/api/member/login</t>
   </si>
   <si>
-    <t>{'status': 1, 'code': '10001', 'data': None, 'msg': '登录成功'}</t>
+    <t>{'status': 1, 'data': None, 'msg': '登录成功', 'code': '10001'}</t>
   </si>
   <si>
     <t>手机号为空</t>
@@ -104,18 +95,12 @@
     <t>{'mobilephone':'','pwd':'123456'}</t>
   </si>
   <si>
-    <t>{'status': 0, 'code': '20103', 'data': None, 'msg': '手机号不能为空'}</t>
-  </si>
-  <si>
     <t>密码错误</t>
   </si>
   <si>
     <t>{'mobilephone':'13541122222','pwd':'126'}</t>
   </si>
   <si>
-    <t>{'status': 0, 'code': '20111', 'data': None, 'msg': '用户名或密码错误'}</t>
-  </si>
-  <si>
     <t>充值</t>
   </si>
   <si>
@@ -128,25 +113,22 @@
     <t>{'mobilephone':'13541122222','amount':'1000'}</t>
   </si>
   <si>
-    <t>{'status': 1, 'code': '10001', 'data': {'type': '1', 'leaveamount': '21000.00', 'regtime': '2018-06-28 23:42:57.0', 'id': 13240, 'regname': '小蜜蜂', 'mobilephone': '13541122222', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E'}, 'msg': '充值成功'}</t>
-  </si>
-  <si>
     <t>手机号不存在</t>
   </si>
   <si>
     <t>{'mobilephone':'15901129231','amount':'1000.05'}</t>
   </si>
   <si>
-    <t>{'status': 0, 'code': '20104', 'data': None, 'msg': '此手机号对应的会员不存在'}</t>
-  </si>
-  <si>
     <t>金额小数大于2位</t>
   </si>
   <si>
     <t>{'mobilephone':'13541122222','amount':'1000.321'}</t>
   </si>
   <si>
-    <t>{'status': 0, 'code': '20116', 'data': None, 'msg': '输入金额的金额小数不能超过两位'}</t>
+    <t>no_reg_tel</t>
+  </si>
+  <si>
+    <t>13541122340</t>
   </si>
 </sst>
 </file>
@@ -542,8 +524,8 @@
   </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" customHeight="1" defaultRowHeight="34.5" outlineLevelCol="0"/>
@@ -639,12 +621,8 @@
       <c r="G3" s="4" t="n">
         <v>20103</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="H3" s="4" t="n"/>
+      <c r="I3" s="4" t="n"/>
     </row>
     <row customHeight="1" ht="34.5" r="4" spans="1:9">
       <c r="A4" s="8" t="n">
@@ -654,7 +632,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>11</v>
@@ -663,33 +641,29 @@
         <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>20109</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="H4" s="4" t="n"/>
+      <c r="I4" s="4" t="n"/>
     </row>
     <row customHeight="1" ht="34.5" r="5" spans="1:9">
       <c r="A5" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>13</v>
@@ -698,10 +672,10 @@
         <v>10001</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row customHeight="1" ht="34.5" r="6" spans="1:9">
@@ -709,145 +683,125 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>20103</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="H6" s="4" t="n"/>
+      <c r="I6" s="4" t="n"/>
     </row>
     <row customHeight="1" ht="34.5" r="7" spans="1:9">
       <c r="A7" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>20111</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="H7" s="4" t="n"/>
+      <c r="I7" s="4" t="n"/>
     </row>
     <row customHeight="1" ht="34.5" r="8" spans="1:9">
       <c r="A8" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>10001</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="H8" s="4" t="n"/>
+      <c r="I8" s="4" t="n"/>
     </row>
     <row customHeight="1" ht="34.5" r="9" spans="1:9">
       <c r="A9" s="8" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G9" s="4" t="n">
         <v>20104</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="H9" s="4" t="n"/>
+      <c r="I9" s="4" t="n"/>
     </row>
     <row customHeight="1" ht="34.5" r="10" spans="1:9">
       <c r="A10" s="8" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="G10" s="4" t="n">
         <v>20116</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="H10" s="4" t="n"/>
+      <c r="I10" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -861,64 +815,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:H3"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="11.625"/>
+    <col customWidth="1" max="2" min="2" width="16.875"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:8">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G2" t="n">
-        <v>7</v>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="n">
-        <v>11</v>
-      </c>
-      <c r="B3" t="n">
-        <v>22</v>
-      </c>
-      <c r="C3" t="n">
-        <v>33</v>
-      </c>
-      <c r="D3" t="n">
-        <v>44</v>
-      </c>
-      <c r="E3" t="n">
-        <v>55</v>
-      </c>
-      <c r="F3" t="n">
-        <v>66</v>
-      </c>
-      <c r="G3" t="n">
-        <v>77</v>
-      </c>
-      <c r="H3" t="n">
-        <v>88</v>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/auto_infterface_case/test_data/test_case.xlsx
+++ b/auto_infterface_case/test_data/test_case.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python34\TestCode\auto_infterface_case\test_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="425" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="425"/>
   </bookViews>
   <sheets>
-    <sheet name="test_data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="init" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="test_data" sheetId="1" r:id="rId1"/>
+    <sheet name="init" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
   <si>
     <t>case_id</t>
   </si>
@@ -59,9 +64,6 @@
     <t>{'mobilephone': 'first_tel','pwd':'123456'}</t>
   </si>
   <si>
-    <t>{'status': 1, 'data': None, 'msg': '注册成功', 'code': '10001'}</t>
-  </si>
-  <si>
     <t>PASS</t>
   </si>
   <si>
@@ -86,9 +88,6 @@
     <t>futureloan/mvc/api/member/login</t>
   </si>
   <si>
-    <t>{'status': 1, 'data': None, 'msg': '登录成功', 'code': '10001'}</t>
-  </si>
-  <si>
     <t>手机号为空</t>
   </si>
   <si>
@@ -128,33 +127,68 @@
     <t>no_reg_tel</t>
   </si>
   <si>
-    <t>13541122340</t>
+    <t>13541122349</t>
+  </si>
+  <si>
+    <t>{'msg': '注册成功', 'status': 1, 'code': '10001', 'data': None}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'msg': '输入金额的金额小数不能超过两位', 'status': 0, 'code': '20116', 'data': None}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'msg': '此手机号对应的会员不存在', 'status': 0, 'code': '20104', 'data': None}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'msg': '充值成功', 'status': 1, 'code': '10001', 'data': {'id': 13240, 'leaveamount': '24000.00', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'regtime': '2018-06-28 23:42:57.0', 'regname': '小蜜蜂', 'mobilephone': '13541122222', 'type': '1'}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'msg': '用户名或密码错误', 'status': 0, 'code': '20111', 'data': None}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'msg': '手机号不能为空', 'status': 0, 'code': '20103', 'data': None}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'msg': '登录成功', 'status': 1, 'code': '10001', 'data': None}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'msg': '手机号码格式不正确', 'status': 0, 'code': '20109', 'data': None}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'msg': '密码不能为空', 'status': 0, 'code': '20103', 'data': None}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -191,43 +225,52 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -517,31 +560,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultRowHeight="34.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="9" width="8.5"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="5.25"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="14.125"/>
-    <col customWidth="1" max="4" min="4" width="7.625"/>
-    <col customWidth="1" max="5" min="5" style="1" width="35.875"/>
-    <col customWidth="1" max="6" min="6" style="1" width="63.25"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="14.75"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" width="20.75"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" width="15.5"/>
+    <col min="1" max="1" width="8.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.625" customWidth="1"/>
+    <col min="5" max="5" width="35.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="63.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.5" r="1" s="6" spans="1:9">
+    <row r="1" spans="1:9" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -570,8 +609,8 @@
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="34.5" r="2" spans="1:9">
-      <c r="A2" s="8" t="n">
+    <row r="2" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -589,25 +628,25 @@
       <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="3">
         <v>10001</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="34.5" r="3" spans="1:9">
-      <c r="A3" s="8" t="n">
+    </row>
+    <row r="3" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>11</v>
@@ -616,23 +655,27 @@
         <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4">
         <v>20103</v>
       </c>
-      <c r="H3" s="4" t="n"/>
-      <c r="I3" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="4" spans="1:9">
-      <c r="A4" s="8" t="n">
+      <c r="H3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>11</v>
@@ -641,202 +684,224 @@
         <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4">
+        <v>20109</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="4" t="n">
-        <v>20109</v>
-      </c>
-      <c r="H4" s="4" t="n"/>
-      <c r="I4" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="5" spans="1:9">
-      <c r="A5" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="4">
         <v>10001</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="34.5" r="6" spans="1:9">
-      <c r="A6" s="8" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="G6" s="4">
         <v>20103</v>
       </c>
-      <c r="H6" s="4" t="n"/>
-      <c r="I6" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="7" spans="1:9">
-      <c r="A7" s="8" t="n">
+      <c r="H6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="4">
+        <v>20111</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>20111</v>
-      </c>
-      <c r="H7" s="4" t="n"/>
-      <c r="I7" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="8" spans="1:9">
-      <c r="A8" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="4">
+        <v>10001</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>10001</v>
-      </c>
-      <c r="H8" s="4" t="n"/>
-      <c r="I8" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="9" spans="1:9">
-      <c r="A9" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="G9" s="4">
         <v>20104</v>
       </c>
-      <c r="H9" s="4" t="n"/>
-      <c r="I9" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="10" spans="1:9">
-      <c r="A10" s="8" t="n">
+      <c r="H9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G10" s="4">
         <v>20116</v>
       </c>
-      <c r="H10" s="4" t="n"/>
-      <c r="I10" s="4" t="n"/>
+      <c r="H10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="11.625"/>
-    <col customWidth="1" max="2" min="2" width="16.875"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/auto_infterface_case/test_data/test_case.xlsx
+++ b/auto_infterface_case/test_data/test_case.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python34\TestCode\auto_infterface_case\test_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="425"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="425" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="test_data" sheetId="1" r:id="rId1"/>
-    <sheet name="init" sheetId="2" r:id="rId2"/>
+    <sheet name="test_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="init" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>case_id</t>
   </si>
@@ -43,12 +39,21 @@
     <t>expected(期望)</t>
   </si>
   <si>
+    <t>check_sql</t>
+  </si>
+  <si>
     <t>actual(实际返回值）</t>
   </si>
   <si>
     <t>result（结果）</t>
   </si>
   <si>
+    <t>check_sql_actual</t>
+  </si>
+  <si>
+    <t>check_sql_result</t>
+  </si>
+  <si>
     <t>注册</t>
   </si>
   <si>
@@ -64,15 +69,39 @@
     <t>{'mobilephone': 'first_tel','pwd':'123456'}</t>
   </si>
   <si>
+    <t>{"sql":"select count(*) from member where mobilephone=%s","sql_data":"first_tel","expected":"(1,)"}</t>
+  </si>
+  <si>
+    <t>{'status': 1, 'msg': '注册成功', 'data': None, 'code': '10001'}</t>
+  </si>
+  <si>
     <t>PASS</t>
   </si>
   <si>
+    <t>(1,)</t>
+  </si>
+  <si>
     <t>密码为空</t>
   </si>
   <si>
     <t>{'mobilephone':'13541122222','pwd':''}</t>
   </si>
   <si>
+    <t>{"sql":"select count(*) from member where mobilephone=%s","sql_data":"","expected":"(0,)"}</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'msg': '密码不能为空', 'data': None, 'code': '20103'}</t>
+  </si>
+  <si>
+    <t>(0,)</t>
+  </si>
+  <si>
+    <t>no_reg_tel</t>
+  </si>
+  <si>
+    <t>13541122354</t>
+  </si>
+  <si>
     <t>手机格式不正确</t>
   </si>
   <si>
@@ -122,73 +151,32 @@
   </si>
   <si>
     <t>{'mobilephone':'13541122222','amount':'1000.321'}</t>
-  </si>
-  <si>
-    <t>no_reg_tel</t>
-  </si>
-  <si>
-    <t>13541122349</t>
-  </si>
-  <si>
-    <t>{'msg': '注册成功', 'status': 1, 'code': '10001', 'data': None}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'msg': '输入金额的金额小数不能超过两位', 'status': 0, 'code': '20116', 'data': None}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'msg': '此手机号对应的会员不存在', 'status': 0, 'code': '20104', 'data': None}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'msg': '充值成功', 'status': 1, 'code': '10001', 'data': {'id': 13240, 'leaveamount': '24000.00', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'regtime': '2018-06-28 23:42:57.0', 'regname': '小蜜蜂', 'mobilephone': '13541122222', 'type': '1'}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'msg': '用户名或密码错误', 'status': 0, 'code': '20111', 'data': None}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'msg': '手机号不能为空', 'status': 0, 'code': '20103', 'data': None}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'msg': '登录成功', 'status': 1, 'code': '10001', 'data': None}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'msg': '手机号码格式不正确', 'status': 0, 'code': '20109', 'data': None}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'msg': '密码不能为空', 'status': 0, 'code': '20103', 'data': None}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -200,7 +188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -223,54 +211,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="14">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -560,27 +561,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultRowHeight="34.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.625" customWidth="1"/>
-    <col min="5" max="5" width="35.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="63.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="9" width="8.5"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="5.25"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="14.125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="7.5"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="1" width="38.25"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="1" width="54.875"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="15.875"/>
+    <col customWidth="1" max="8" min="8" width="57.625"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="20.75"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" width="15.5"/>
+    <col bestFit="1" customWidth="1" max="12" min="11" width="18.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row customFormat="1" customHeight="1" ht="34.5" r="1" s="6" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -602,306 +609,446 @@
       <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8">
+      <c r="J1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="34.5" r="2" spans="1:12">
+      <c r="A2" s="8" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>10001</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="34.5" r="3" spans="1:12">
+      <c r="A3" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3">
-        <v>10001</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="4">
+        <v>22</v>
+      </c>
+      <c r="G3" s="4" t="n">
         <v>20103</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>44</v>
+      <c r="H3" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="4">
-        <v>20109</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="4">
-        <v>10001</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="K3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="4">
-        <v>20103</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="4">
-        <v>20111</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="4">
-        <v>10001</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="4">
-        <v>20104</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="4">
-        <v>20116</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>14</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="11.625"/>
+    <col customWidth="1" max="2" min="2" width="16.875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultRowHeight="34.5" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="9" width="8.5"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="5.25"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="14.125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="7.5"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="1" width="38.25"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="1" width="54.875"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="15.875"/>
+    <col customWidth="1" max="8" min="8" width="57.625"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="20.75"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" width="15.5"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" width="18.375"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="34.5" r="1" s="6" spans="1:11">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="34.5" r="2" spans="1:11">
+      <c r="A2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>10001</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="4" t="n"/>
+      <c r="J2" s="4" t="n"/>
+      <c r="K2" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="3" spans="1:11">
+      <c r="A3" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>20103</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="4" t="n"/>
+      <c r="J3" s="4" t="n"/>
+      <c r="K3" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="4" spans="1:11">
+      <c r="A4" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>20109</v>
+      </c>
+      <c r="H4" s="4" t="n"/>
+      <c r="I4" s="4" t="n"/>
+      <c r="J4" s="4" t="n"/>
+      <c r="K4" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="5" spans="1:11">
+      <c r="A5" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>10001</v>
+      </c>
+      <c r="H5" s="4" t="n"/>
+      <c r="I5" s="4" t="n"/>
+      <c r="J5" s="4" t="n"/>
+      <c r="K5" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="6" spans="1:11">
+      <c r="A6" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G6" s="4" t="n">
+        <v>20103</v>
+      </c>
+      <c r="H6" s="4" t="n"/>
+      <c r="I6" s="4" t="n"/>
+      <c r="J6" s="4" t="n"/>
+      <c r="K6" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="7" spans="1:11">
+      <c r="A7" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>20111</v>
+      </c>
+      <c r="H7" s="4" t="n"/>
+      <c r="I7" s="4" t="n"/>
+      <c r="J7" s="4" t="n"/>
+      <c r="K7" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="8" spans="1:11">
+      <c r="A8" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>10001</v>
+      </c>
+      <c r="H8" s="4" t="n"/>
+      <c r="I8" s="4" t="n"/>
+      <c r="J8" s="4" t="n"/>
+      <c r="K8" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="9" spans="1:11">
+      <c r="A9" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>20104</v>
+      </c>
+      <c r="H9" s="4" t="n"/>
+      <c r="I9" s="4" t="n"/>
+      <c r="J9" s="4" t="n"/>
+      <c r="K9" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="10" spans="1:11">
+      <c r="A10" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>20116</v>
+      </c>
+      <c r="H10" s="4" t="n"/>
+      <c r="I10" s="4" t="n"/>
+      <c r="J10" s="4" t="n"/>
+      <c r="K10" s="4" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/auto_infterface_case/test_data/test_case.xlsx
+++ b/auto_infterface_case/test_data/test_case.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python34\TestCode\auto_infterface_case\test_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="425" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="425"/>
   </bookViews>
   <sheets>
-    <sheet name="test_data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="init" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="test_data" sheetId="1" r:id="rId1"/>
+    <sheet name="init" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
   <si>
     <t>case_id</t>
   </si>
@@ -36,72 +41,63 @@
     <t>param</t>
   </si>
   <si>
+    <t>expectresult</t>
+  </si>
+  <si>
+    <t>check_sql</t>
+  </si>
+  <si>
+    <t>actual(实际返回值）</t>
+  </si>
+  <si>
+    <t>result（结果）</t>
+  </si>
+  <si>
+    <t>check_sql_actual</t>
+  </si>
+  <si>
+    <t>check_sql_result</t>
+  </si>
+  <si>
+    <t>注册</t>
+  </si>
+  <si>
+    <t>注册-正常注册</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>futureloan/mvc/api/member/register</t>
+  </si>
+  <si>
+    <t>{'mobilephone': 'first_tel','pwd':'123456'}</t>
+  </si>
+  <si>
+    <t>{"sql":"select count(*) from member where mobilephone=${no_reg_tel}","expected":"(1,)"}</t>
+  </si>
+  <si>
+    <t>密码为空</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'13541122222','pwd':''}</t>
+  </si>
+  <si>
+    <t>no_reg_tel</t>
+  </si>
+  <si>
+    <t>13541122355</t>
+  </si>
+  <si>
     <t>expected(期望)</t>
   </si>
   <si>
-    <t>check_sql</t>
-  </si>
-  <si>
-    <t>actual(实际返回值）</t>
-  </si>
-  <si>
-    <t>result（结果）</t>
-  </si>
-  <si>
-    <t>check_sql_actual</t>
-  </si>
-  <si>
-    <t>check_sql_result</t>
-  </si>
-  <si>
-    <t>注册</t>
-  </si>
-  <si>
-    <t>注册-正常注册</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>futureloan/mvc/api/member/register</t>
-  </si>
-  <si>
-    <t>{'mobilephone': 'first_tel','pwd':'123456'}</t>
-  </si>
-  <si>
     <t>{"sql":"select count(*) from member where mobilephone=%s","sql_data":"first_tel","expected":"(1,)"}</t>
   </si>
   <si>
-    <t>{'status': 1, 'msg': '注册成功', 'data': None, 'code': '10001'}</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>(1,)</t>
-  </si>
-  <si>
-    <t>密码为空</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'13541122222','pwd':''}</t>
-  </si>
-  <si>
     <t>{"sql":"select count(*) from member where mobilephone=%s","sql_data":"","expected":"(0,)"}</t>
   </si>
   <si>
-    <t>{'status': 0, 'msg': '密码不能为空', 'data': None, 'code': '20103'}</t>
-  </si>
-  <si>
-    <t>(0,)</t>
-  </si>
-  <si>
-    <t>no_reg_tel</t>
-  </si>
-  <si>
-    <t>13541122354</t>
-  </si>
-  <si>
     <t>手机格式不正确</t>
   </si>
   <si>
@@ -151,32 +147,35 @@
   </si>
   <si>
     <t>{'mobilephone':'13541122222','amount':'1000.321'}</t>
+  </si>
+  <si>
+    <t>{'mobilephone': '${no_reg_tel}','pwd':'123456'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -226,52 +225,61 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -561,33 +569,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultRowHeight="34.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="9" width="8.5"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="5.25"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="14.125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="7.5"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="1" width="38.25"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="1" width="54.875"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="15.875"/>
-    <col customWidth="1" max="8" min="8" width="57.625"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" width="20.75"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" width="15.5"/>
-    <col bestFit="1" customWidth="1" max="12" min="11" width="18.375"/>
+    <col min="1" max="1" width="8.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57.625" customWidth="1"/>
+    <col min="9" max="9" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.5" r="1" s="6" spans="1:12">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -625,8 +629,8 @@
         <v>11</v>
       </c>
     </row>
-    <row customHeight="1" ht="34.5" r="2" spans="1:12">
-      <c r="A2" s="8" t="n">
+    <row r="2" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -642,36 +646,28 @@
         <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="G2" s="3">
         <v>10001</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="34.5" r="3" spans="1:12">
-      <c r="A3" s="8" t="n">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>14</v>
@@ -680,93 +676,77 @@
         <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4">
         <v>20103</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="11.625"/>
-    <col customWidth="1" max="2" min="2" width="16.875"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultRowHeight="34.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="9" width="8.5"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="5.25"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="14.125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="7.5"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="1" width="38.25"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="1" width="54.875"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="15.875"/>
-    <col customWidth="1" max="8" min="8" width="57.625"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" width="20.75"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" width="15.5"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" width="18.375"/>
+    <col min="1" max="1" width="8.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57.625" customWidth="1"/>
+    <col min="9" max="9" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.5" r="1" s="6" spans="1:11">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -786,7 +766,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>7</v>
@@ -801,8 +781,8 @@
         <v>11</v>
       </c>
     </row>
-    <row customHeight="1" ht="34.5" r="2" spans="1:11">
-      <c r="A2" s="8" t="n">
+    <row r="2" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -820,25 +800,25 @@
       <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="3">
         <v>10001</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="4" t="n"/>
-      <c r="J2" s="4" t="n"/>
-      <c r="K2" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="3" spans="1:11">
-      <c r="A3" s="8" t="n">
+        <v>23</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>14</v>
@@ -847,27 +827,27 @@
         <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4">
         <v>20103</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="4" t="n"/>
-      <c r="J3" s="4" t="n"/>
-      <c r="K3" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="4" spans="1:11">
-      <c r="A4" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>14</v>
@@ -876,179 +856,180 @@
         <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="G4" s="4">
         <v>20109</v>
       </c>
-      <c r="H4" s="4" t="n"/>
-      <c r="I4" s="4" t="n"/>
-      <c r="J4" s="4" t="n"/>
-      <c r="K4" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="5" spans="1:11">
-      <c r="A5" s="8" t="n">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="4">
         <v>10001</v>
       </c>
-      <c r="H5" s="4" t="n"/>
-      <c r="I5" s="4" t="n"/>
-      <c r="J5" s="4" t="n"/>
-      <c r="K5" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="6" spans="1:11">
-      <c r="A6" s="8" t="n">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="4">
+        <v>20103</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>20103</v>
-      </c>
-      <c r="H6" s="4" t="n"/>
-      <c r="I6" s="4" t="n"/>
-      <c r="J6" s="4" t="n"/>
-      <c r="K6" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="7" spans="1:11">
-      <c r="A7" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G7" s="4">
         <v>20111</v>
       </c>
-      <c r="H7" s="4" t="n"/>
-      <c r="I7" s="4" t="n"/>
-      <c r="J7" s="4" t="n"/>
-      <c r="K7" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="8" spans="1:11">
-      <c r="A8" s="8" t="n">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="4" t="n">
+        <v>37</v>
+      </c>
+      <c r="G8" s="4">
         <v>10001</v>
       </c>
-      <c r="H8" s="4" t="n"/>
-      <c r="I8" s="4" t="n"/>
-      <c r="J8" s="4" t="n"/>
-      <c r="K8" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="9" spans="1:11">
-      <c r="A9" s="8" t="n">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="4">
         <v>20104</v>
       </c>
-      <c r="H9" s="4" t="n"/>
-      <c r="I9" s="4" t="n"/>
-      <c r="J9" s="4" t="n"/>
-      <c r="K9" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="10" spans="1:11">
-      <c r="A10" s="8" t="n">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="4" t="n">
+        <v>41</v>
+      </c>
+      <c r="G10" s="4">
         <v>20116</v>
       </c>
-      <c r="H10" s="4" t="n"/>
-      <c r="I10" s="4" t="n"/>
-      <c r="J10" s="4" t="n"/>
-      <c r="K10" s="4" t="n"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/auto_infterface_case/test_data/test_case.xlsx
+++ b/auto_infterface_case/test_data/test_case.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python34\TestCode\auto_infterface_case\test_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="425"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="425" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="test_data" sheetId="1" r:id="rId1"/>
-    <sheet name="init" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="test_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="init" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>case_id</t>
   </si>
@@ -71,27 +66,30 @@
     <t>futureloan/mvc/api/member/register</t>
   </si>
   <si>
+    <t>{'mobilephone': '${no_reg_tel}','pwd':'123456'}</t>
+  </si>
+  <si>
+    <t>{"sql":"select count(*) from member where mobilephone=${no_reg_tel}","expected":"(1,)"}</t>
+  </si>
+  <si>
+    <t>密码为空</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'13541122222','pwd':''}</t>
+  </si>
+  <si>
+    <t>no_reg_tel</t>
+  </si>
+  <si>
+    <t>13541122365</t>
+  </si>
+  <si>
+    <t>expected(期望)</t>
+  </si>
+  <si>
     <t>{'mobilephone': 'first_tel','pwd':'123456'}</t>
   </si>
   <si>
-    <t>{"sql":"select count(*) from member where mobilephone=${no_reg_tel}","expected":"(1,)"}</t>
-  </si>
-  <si>
-    <t>密码为空</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'13541122222','pwd':''}</t>
-  </si>
-  <si>
-    <t>no_reg_tel</t>
-  </si>
-  <si>
-    <t>13541122355</t>
-  </si>
-  <si>
-    <t>expected(期望)</t>
-  </si>
-  <si>
     <t>{"sql":"select count(*) from member where mobilephone=%s","sql_data":"first_tel","expected":"(1,)"}</t>
   </si>
   <si>
@@ -147,35 +145,32 @@
   </si>
   <si>
     <t>{'mobilephone':'13541122222','amount':'1000.321'}</t>
-  </si>
-  <si>
-    <t>{'mobilephone': '${no_reg_tel}','pwd':'123456'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -225,61 +220,52 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -569,29 +555,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultRowHeight="34.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="54.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="57.625" customWidth="1"/>
-    <col min="9" max="9" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18.375" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="9" width="8.5"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="5.25"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="14.125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="7.5"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="1" width="38.25"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="1" width="54.875"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="15.875"/>
+    <col customWidth="1" max="8" min="8" width="57.625"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="20.75"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" width="15.5"/>
+    <col bestFit="1" customWidth="1" max="12" min="11" width="18.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row customFormat="1" customHeight="1" ht="34.5" r="1" s="6" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -629,8 +619,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8">
+    <row customHeight="1" ht="34.5" r="2" spans="1:12">
+      <c r="A2" s="8" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -646,21 +636,21 @@
         <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="3">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="n">
         <v>10001</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8">
+      <c r="I2" s="4" t="n"/>
+      <c r="J2" s="4" t="n"/>
+      <c r="K2" s="4" t="n"/>
+      <c r="L2" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="3" spans="1:12">
+      <c r="A3" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -678,37 +668,40 @@
       <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="4" t="n">
         <v>20103</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="H3" s="13" t="n"/>
+      <c r="I3" s="4" t="n"/>
+      <c r="J3" s="4" t="n"/>
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="4" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="11.625"/>
+    <col customWidth="1" max="2" min="2" width="16.875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -717,36 +710,39 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultRowHeight="34.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="54.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="57.625" customWidth="1"/>
-    <col min="9" max="9" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.375" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="9" width="8.5"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="5.25"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="14.125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="7.5"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="1" width="38.25"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="1" width="54.875"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="15.875"/>
+    <col customWidth="1" max="8" min="8" width="57.625"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="20.75"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" width="15.5"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" width="18.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row customFormat="1" customHeight="1" ht="34.5" r="1" s="6" spans="1:11">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -781,8 +777,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8">
+    <row customHeight="1" ht="34.5" r="2" spans="1:11">
+      <c r="A2" s="8" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -798,20 +794,20 @@
         <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="3">
+        <v>23</v>
+      </c>
+      <c r="G2" s="3" t="n">
         <v>10001</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8">
+        <v>24</v>
+      </c>
+      <c r="I2" s="4" t="n"/>
+      <c r="J2" s="4" t="n"/>
+      <c r="K2" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="3" spans="1:11">
+      <c r="A3" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -829,25 +825,25 @@
       <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="4" t="n">
         <v>20103</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
+        <v>25</v>
+      </c>
+      <c r="I3" s="4" t="n"/>
+      <c r="J3" s="4" t="n"/>
+      <c r="K3" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="4" spans="1:11">
+      <c r="A4" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>14</v>
@@ -856,180 +852,179 @@
         <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="4">
+        <v>27</v>
+      </c>
+      <c r="G4" s="4" t="n">
         <v>20109</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8">
+      <c r="H4" s="4" t="n"/>
+      <c r="I4" s="4" t="n"/>
+      <c r="J4" s="4" t="n"/>
+      <c r="K4" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="5" spans="1:11">
+      <c r="A5" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="4">
+        <v>23</v>
+      </c>
+      <c r="G5" s="4" t="n">
         <v>10001</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
+      <c r="H5" s="4" t="n"/>
+      <c r="I5" s="4" t="n"/>
+      <c r="J5" s="4" t="n"/>
+      <c r="K5" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="6" spans="1:11">
+      <c r="A6" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="4">
+        <v>32</v>
+      </c>
+      <c r="G6" s="4" t="n">
         <v>20103</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
+      <c r="H6" s="4" t="n"/>
+      <c r="I6" s="4" t="n"/>
+      <c r="J6" s="4" t="n"/>
+      <c r="K6" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="7" spans="1:11">
+      <c r="A7" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="4">
+        <v>34</v>
+      </c>
+      <c r="G7" s="4" t="n">
         <v>20111</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8">
+      <c r="H7" s="4" t="n"/>
+      <c r="I7" s="4" t="n"/>
+      <c r="J7" s="4" t="n"/>
+      <c r="K7" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="8" spans="1:11">
+      <c r="A8" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="4">
+        <v>38</v>
+      </c>
+      <c r="G8" s="4" t="n">
         <v>10001</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8">
+      <c r="H8" s="4" t="n"/>
+      <c r="I8" s="4" t="n"/>
+      <c r="J8" s="4" t="n"/>
+      <c r="K8" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="9" spans="1:11">
+      <c r="A9" s="8" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="4">
+        <v>40</v>
+      </c>
+      <c r="G9" s="4" t="n">
         <v>20104</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
+      <c r="H9" s="4" t="n"/>
+      <c r="I9" s="4" t="n"/>
+      <c r="J9" s="4" t="n"/>
+      <c r="K9" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="10" spans="1:11">
+      <c r="A10" s="8" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="4">
+        <v>42</v>
+      </c>
+      <c r="G10" s="4" t="n">
         <v>20116</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="H10" s="4" t="n"/>
+      <c r="I10" s="4" t="n"/>
+      <c r="J10" s="4" t="n"/>
+      <c r="K10" s="4" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/auto_infterface_case/test_data/test_case.xlsx
+++ b/auto_infterface_case/test_data/test_case.xlsx
@@ -78,43 +78,43 @@
     <t>{'mobilephone':'13541122222','pwd':''}</t>
   </si>
   <si>
+    <t>手机格式不正确</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'135411463110','pwd':'123456'}</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>登录-正常登录</t>
+  </si>
+  <si>
+    <t>futureloan/mvc/api/member/login</t>
+  </si>
+  <si>
+    <t>{'mobilephone': 'first_tel','pwd':'123456'}</t>
+  </si>
+  <si>
+    <t>手机号为空</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'','pwd':'123456'}</t>
+  </si>
+  <si>
     <t>no_reg_tel</t>
   </si>
   <si>
-    <t>13541122365</t>
+    <t>13541122369</t>
   </si>
   <si>
     <t>expected(期望)</t>
   </si>
   <si>
-    <t>{'mobilephone': 'first_tel','pwd':'123456'}</t>
-  </si>
-  <si>
     <t>{"sql":"select count(*) from member where mobilephone=%s","sql_data":"first_tel","expected":"(1,)"}</t>
   </si>
   <si>
     <t>{"sql":"select count(*) from member where mobilephone=%s","sql_data":"","expected":"(0,)"}</t>
-  </si>
-  <si>
-    <t>手机格式不正确</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'135411463110','pwd':'123456'}</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>登录-正常登录</t>
-  </si>
-  <si>
-    <t>futureloan/mvc/api/member/login</t>
-  </si>
-  <si>
-    <t>手机号为空</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'','pwd':'123456'}</t>
   </si>
   <si>
     <t>密码错误</t>
@@ -560,10 +560,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" customHeight="1" defaultRowHeight="34.5" outlineLevelCol="0"/>
@@ -676,6 +676,87 @@
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
       <c r="L3" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="4" spans="1:12">
+      <c r="A4" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>20109</v>
+      </c>
+      <c r="H4" s="4" t="n"/>
+      <c r="I4" s="4" t="n"/>
+      <c r="J4" s="4" t="n"/>
+      <c r="K4" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="5" spans="1:12">
+      <c r="A5" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>10001</v>
+      </c>
+      <c r="H5" s="4" t="n"/>
+      <c r="I5" s="4" t="n"/>
+      <c r="J5" s="4" t="n"/>
+      <c r="K5" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="6" spans="1:12">
+      <c r="A6" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>20103</v>
+      </c>
+      <c r="H6" s="4" t="n"/>
+      <c r="I6" s="4" t="n"/>
+      <c r="J6" s="4" t="n"/>
+      <c r="K6" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -703,10 +784,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -724,7 +805,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A4" sqref="A4:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" customHeight="1" defaultRowHeight="34.5" outlineLevelCol="0"/>
@@ -762,7 +843,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>7</v>
@@ -794,13 +875,13 @@
         <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>10001</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
@@ -829,7 +910,7 @@
         <v>20103</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
@@ -843,7 +924,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>14</v>
@@ -852,7 +933,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>20109</v>
@@ -867,19 +948,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>10001</v>
@@ -894,19 +975,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>20103</v>
@@ -921,7 +1002,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>33</v>
@@ -930,7 +1011,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>34</v>
@@ -1026,5 +1107,6 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/auto_infterface_case/test_data/test_case.xlsx
+++ b/auto_infterface_case/test_data/test_case.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python34\TestCode\auto_infterface_case\test_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="425" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="425"/>
   </bookViews>
   <sheets>
-    <sheet name="test_data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="init" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="test_data" sheetId="1" r:id="rId1"/>
+    <sheet name="init" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="50">
   <si>
     <t>case_id</t>
   </si>
@@ -72,18 +77,33 @@
     <t>{"sql":"select count(*) from member where mobilephone=${no_reg_tel}","expected":"(1,)"}</t>
   </si>
   <si>
+    <t>{'status': 1, 'msg': '注册成功', 'code': '10001', 'data': None}</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>(1,)</t>
+  </si>
+  <si>
     <t>密码为空</t>
   </si>
   <si>
     <t>{'mobilephone':'13541122222','pwd':''}</t>
   </si>
   <si>
+    <t>{'status': 0, 'msg': '密码不能为空', 'code': '20103', 'data': None}</t>
+  </si>
+  <si>
     <t>手机格式不正确</t>
   </si>
   <si>
     <t>{'mobilephone':'135411463110','pwd':'123456'}</t>
   </si>
   <si>
+    <t>{'status': 0, 'msg': '手机号码格式不正确', 'code': '20109', 'data': None}</t>
+  </si>
+  <si>
     <t>登录</t>
   </si>
   <si>
@@ -93,22 +113,28 @@
     <t>futureloan/mvc/api/member/login</t>
   </si>
   <si>
+    <t>{'status': 1, 'msg': '登录成功', 'code': '10001', 'data': None}</t>
+  </si>
+  <si>
+    <t>手机号为空</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'','pwd':'123456'}</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'msg': '手机号不能为空', 'code': '20103', 'data': None}</t>
+  </si>
+  <si>
+    <t>no_reg_tel</t>
+  </si>
+  <si>
+    <t>13541122375</t>
+  </si>
+  <si>
+    <t>expected(期望)</t>
+  </si>
+  <si>
     <t>{'mobilephone': 'first_tel','pwd':'123456'}</t>
-  </si>
-  <si>
-    <t>手机号为空</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'','pwd':'123456'}</t>
-  </si>
-  <si>
-    <t>no_reg_tel</t>
-  </si>
-  <si>
-    <t>13541122369</t>
-  </si>
-  <si>
-    <t>expected(期望)</t>
   </si>
   <si>
     <t>{"sql":"select count(*) from member where mobilephone=%s","sql_data":"first_tel","expected":"(1,)"}</t>
@@ -150,27 +176,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -220,52 +245,61 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -555,33 +589,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultRowHeight="34.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="9" width="8.5"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="5.25"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="14.125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="7.5"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="1" width="38.25"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="1" width="54.875"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="15.875"/>
-    <col customWidth="1" max="8" min="8" width="57.625"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" width="20.75"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" width="15.5"/>
-    <col bestFit="1" customWidth="1" max="12" min="11" width="18.375"/>
+    <col min="1" max="1" width="8.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57.625" customWidth="1"/>
+    <col min="9" max="9" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.5" r="1" s="6" spans="1:12">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -619,8 +649,8 @@
         <v>11</v>
       </c>
     </row>
-    <row customHeight="1" ht="34.5" r="2" spans="1:12">
-      <c r="A2" s="8" t="n">
+    <row r="2" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -638,26 +668,34 @@
       <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="3">
         <v>10001</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="4" t="n"/>
-      <c r="J2" s="4" t="n"/>
-      <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="3" spans="1:12">
-      <c r="A3" s="8" t="n">
+      <c r="I2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>14</v>
@@ -666,26 +704,30 @@
         <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="4">
+        <v>20103</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="4" t="n">
-        <v>20103</v>
-      </c>
-      <c r="H3" s="13" t="n"/>
-      <c r="I3" s="4" t="n"/>
-      <c r="J3" s="4" t="n"/>
-      <c r="K3" s="4" t="n"/>
-      <c r="L3" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="4" spans="1:12">
-      <c r="A4" s="8" t="n">
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>14</v>
@@ -694,136 +736,145 @@
         <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G4" s="4">
         <v>20109</v>
       </c>
-      <c r="H4" s="4" t="n"/>
-      <c r="I4" s="4" t="n"/>
-      <c r="J4" s="4" t="n"/>
-      <c r="K4" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="5" spans="1:12">
-      <c r="A5" s="8" t="n">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="G5" s="4">
         <v>10001</v>
       </c>
-      <c r="H5" s="4" t="n"/>
-      <c r="I5" s="4" t="n"/>
-      <c r="J5" s="4" t="n"/>
-      <c r="K5" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="6" spans="1:12">
-      <c r="A6" s="8" t="n">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="G6" s="4">
         <v>20103</v>
       </c>
-      <c r="H6" s="4" t="n"/>
-      <c r="I6" s="4" t="n"/>
-      <c r="J6" s="4" t="n"/>
-      <c r="K6" s="4" t="n"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="11.625"/>
-    <col customWidth="1" max="2" min="2" width="16.875"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultRowHeight="34.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="9" width="8.5"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="5.25"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="14.125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="7.5"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="1" width="38.25"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="1" width="54.875"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="15.875"/>
-    <col customWidth="1" max="8" min="8" width="57.625"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" width="20.75"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" width="15.5"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" width="18.375"/>
+    <col min="1" max="1" width="8.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57.625" customWidth="1"/>
+    <col min="9" max="9" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="34.5" r="1" s="6" spans="1:11">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -843,7 +894,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>7</v>
@@ -858,8 +909,8 @@
         <v>11</v>
       </c>
     </row>
-    <row customHeight="1" ht="34.5" r="2" spans="1:11">
-      <c r="A2" s="8" t="n">
+    <row r="2" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -875,27 +926,27 @@
         <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="G2" s="3">
         <v>10001</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="4" t="n"/>
-      <c r="J2" s="4" t="n"/>
-      <c r="K2" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="3" spans="1:11">
-      <c r="A3" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>14</v>
@@ -904,27 +955,27 @@
         <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="G3" s="4">
         <v>20103</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="4" t="n"/>
-      <c r="J3" s="4" t="n"/>
-      <c r="K3" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="4" spans="1:11">
-      <c r="A4" s="8" t="n">
+        <v>39</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>14</v>
@@ -933,180 +984,181 @@
         <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G4" s="4">
         <v>20109</v>
       </c>
-      <c r="H4" s="4" t="n"/>
-      <c r="I4" s="4" t="n"/>
-      <c r="J4" s="4" t="n"/>
-      <c r="K4" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="5" spans="1:11">
-      <c r="A5" s="8" t="n">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="4" t="n">
+        <v>37</v>
+      </c>
+      <c r="G5" s="4">
         <v>10001</v>
       </c>
-      <c r="H5" s="4" t="n"/>
-      <c r="I5" s="4" t="n"/>
-      <c r="J5" s="4" t="n"/>
-      <c r="K5" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="6" spans="1:11">
-      <c r="A6" s="8" t="n">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="4">
+        <v>20103</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="4" t="n">
-        <v>20103</v>
-      </c>
-      <c r="H6" s="4" t="n"/>
-      <c r="I6" s="4" t="n"/>
-      <c r="J6" s="4" t="n"/>
-      <c r="K6" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="7" spans="1:11">
-      <c r="A7" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="4" t="n">
+        <v>41</v>
+      </c>
+      <c r="G7" s="4">
         <v>20111</v>
       </c>
-      <c r="H7" s="4" t="n"/>
-      <c r="I7" s="4" t="n"/>
-      <c r="J7" s="4" t="n"/>
-      <c r="K7" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="8" spans="1:11">
-      <c r="A8" s="8" t="n">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="G8" s="4">
         <v>10001</v>
       </c>
-      <c r="H8" s="4" t="n"/>
-      <c r="I8" s="4" t="n"/>
-      <c r="J8" s="4" t="n"/>
-      <c r="K8" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="9" spans="1:11">
-      <c r="A9" s="8" t="n">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="4" t="n">
+        <v>47</v>
+      </c>
+      <c r="G9" s="4">
         <v>20104</v>
       </c>
-      <c r="H9" s="4" t="n"/>
-      <c r="I9" s="4" t="n"/>
-      <c r="J9" s="4" t="n"/>
-      <c r="K9" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="10" spans="1:11">
-      <c r="A10" s="8" t="n">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="G10" s="4">
         <v>20116</v>
       </c>
-      <c r="H10" s="4" t="n"/>
-      <c r="I10" s="4" t="n"/>
-      <c r="J10" s="4" t="n"/>
-      <c r="K10" s="4" t="n"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/auto_infterface_case/test_data/test_case.xlsx
+++ b/auto_infterface_case/test_data/test_case.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python34\TestCode\auto_infterface_case\test_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="425"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="425" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="test_data" sheetId="1" r:id="rId1"/>
-    <sheet name="init" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="test_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="init" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>case_id</t>
   </si>
@@ -128,7 +123,7 @@
     <t>no_reg_tel</t>
   </si>
   <si>
-    <t>13541122375</t>
+    <t>13541122376</t>
   </si>
   <si>
     <t>expected(期望)</t>
@@ -176,26 +171,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -245,61 +241,52 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -589,29 +576,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultRowHeight="34.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="54.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="57.625" customWidth="1"/>
-    <col min="9" max="9" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18.375" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="9" width="8.5"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="5.25"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="14.125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="7.5"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="1" width="38.25"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="1" width="54.875"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="15.875"/>
+    <col customWidth="1" max="8" min="8" width="57.625"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="20.75"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" width="15.5"/>
+    <col bestFit="1" customWidth="1" max="12" min="11" width="18.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row customFormat="1" customHeight="1" ht="34.5" r="1" s="6" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -649,8 +640,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8">
+    <row customHeight="1" ht="34.5" r="2" spans="1:12">
+      <c r="A2" s="8" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -668,7 +659,7 @@
       <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="3" t="n">
         <v>10001</v>
       </c>
       <c r="H2" s="13" t="s">
@@ -687,8 +678,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8">
+    <row customHeight="1" ht="34.5" r="3" spans="1:12">
+      <c r="A3" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -706,21 +697,21 @@
       <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="4" t="n">
         <v>20103</v>
       </c>
-      <c r="H3" s="13"/>
+      <c r="H3" s="13" t="n"/>
       <c r="I3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="4" spans="1:12">
+      <c r="A4" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -738,21 +729,21 @@
       <c r="F4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="4" t="n">
         <v>20109</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4" t="n"/>
       <c r="I4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8">
+      <c r="K4" s="4" t="n"/>
+      <c r="L4" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="5" spans="1:12">
+      <c r="A5" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -770,21 +761,21 @@
       <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="4" t="n">
         <v>10001</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4" t="n"/>
       <c r="I5" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
+      <c r="K5" s="4" t="n"/>
+      <c r="L5" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="6" spans="1:12">
+      <c r="A6" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -802,41 +793,44 @@
       <c r="F6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="4" t="n">
         <v>20103</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="4" t="n"/>
       <c r="I6" s="4" t="s">
         <v>33</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="K6" s="4" t="n"/>
+      <c r="L6" s="4" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="11.625"/>
+    <col customWidth="1" max="2" min="2" width="16.875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -845,36 +839,39 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultRowHeight="34.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="54.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="57.625" customWidth="1"/>
-    <col min="9" max="9" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.375" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="9" width="8.5"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="5.25"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="14.125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="7.5"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="1" width="38.25"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="1" width="54.875"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="15.875"/>
+    <col customWidth="1" max="8" min="8" width="57.625"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="20.75"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" width="15.5"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" width="18.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row customFormat="1" customHeight="1" ht="34.5" r="1" s="6" spans="1:11">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -909,8 +906,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8">
+    <row customHeight="1" ht="34.5" r="2" spans="1:11">
+      <c r="A2" s="8" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -928,18 +925,18 @@
       <c r="F2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="3" t="n">
         <v>10001</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8">
+      <c r="I2" s="4" t="n"/>
+      <c r="J2" s="4" t="n"/>
+      <c r="K2" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="3" spans="1:11">
+      <c r="A3" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -957,18 +954,18 @@
       <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="4" t="n">
         <v>20103</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
+      <c r="I3" s="4" t="n"/>
+      <c r="J3" s="4" t="n"/>
+      <c r="K3" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="4" spans="1:11">
+      <c r="A4" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -986,16 +983,16 @@
       <c r="F4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="4" t="n">
         <v>20109</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8">
+      <c r="H4" s="4" t="n"/>
+      <c r="I4" s="4" t="n"/>
+      <c r="J4" s="4" t="n"/>
+      <c r="K4" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="5" spans="1:11">
+      <c r="A5" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1013,16 +1010,16 @@
       <c r="F5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="4" t="n">
         <v>10001</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
+      <c r="H5" s="4" t="n"/>
+      <c r="I5" s="4" t="n"/>
+      <c r="J5" s="4" t="n"/>
+      <c r="K5" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="6" spans="1:11">
+      <c r="A6" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1040,16 +1037,16 @@
       <c r="F6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="4" t="n">
         <v>20103</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
+      <c r="H6" s="4" t="n"/>
+      <c r="I6" s="4" t="n"/>
+      <c r="J6" s="4" t="n"/>
+      <c r="K6" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="7" spans="1:11">
+      <c r="A7" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1067,16 +1064,16 @@
       <c r="F7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="4" t="n">
         <v>20111</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8">
+      <c r="H7" s="4" t="n"/>
+      <c r="I7" s="4" t="n"/>
+      <c r="J7" s="4" t="n"/>
+      <c r="K7" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="8" spans="1:11">
+      <c r="A8" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1094,16 +1091,16 @@
       <c r="F8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="4" t="n">
         <v>10001</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8">
+      <c r="H8" s="4" t="n"/>
+      <c r="I8" s="4" t="n"/>
+      <c r="J8" s="4" t="n"/>
+      <c r="K8" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="9" spans="1:11">
+      <c r="A9" s="8" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1121,16 +1118,16 @@
       <c r="F9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="4" t="n">
         <v>20104</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
+      <c r="H9" s="4" t="n"/>
+      <c r="I9" s="4" t="n"/>
+      <c r="J9" s="4" t="n"/>
+      <c r="K9" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="10" spans="1:11">
+      <c r="A10" s="8" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1148,17 +1145,16 @@
       <c r="F10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="4" t="n">
         <v>20116</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="H10" s="4" t="n"/>
+      <c r="I10" s="4" t="n"/>
+      <c r="J10" s="4" t="n"/>
+      <c r="K10" s="4" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/auto_infterface_case/test_data/test_case.xlsx
+++ b/auto_infterface_case/test_data/test_case.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>case_id</t>
   </si>
@@ -36,7 +36,7 @@
     <t>param</t>
   </si>
   <si>
-    <t>expectresult</t>
+    <t>expect_result</t>
   </si>
   <si>
     <t>check_sql</t>
@@ -69,10 +69,13 @@
     <t>{'mobilephone': '${no_reg_tel}','pwd':'123456'}</t>
   </si>
   <si>
+    <t>{'msg': '注册成功', 'status': 1, 'data': None, 'code': '10001'}</t>
+  </si>
+  <si>
     <t>{"sql":"select count(*) from member where mobilephone=${no_reg_tel}","expected":"(1,)"}</t>
   </si>
   <si>
-    <t>{'status': 1, 'msg': '注册成功', 'code': '10001', 'data': None}</t>
+    <t>{'code': '10001', 'msg': '注册成功', 'status': 1, 'data': None}</t>
   </si>
   <si>
     <t>PASS</t>
@@ -87,7 +90,10 @@
     <t>{'mobilephone':'13541122222','pwd':''}</t>
   </si>
   <si>
-    <t>{'status': 0, 'msg': '密码不能为空', 'code': '20103', 'data': None}</t>
+    <t>{'msg': '密码不能为空', 'status': 0, 'data': None, 'code': '20103'}</t>
+  </si>
+  <si>
+    <t>{'code': '20103', 'msg': '密码不能为空', 'status': 0, 'data': None}</t>
   </si>
   <si>
     <t>手机格式不正确</t>
@@ -96,7 +102,10 @@
     <t>{'mobilephone':'135411463110','pwd':'123456'}</t>
   </si>
   <si>
-    <t>{'status': 0, 'msg': '手机号码格式不正确', 'code': '20109', 'data': None}</t>
+    <t>{'msg': '手机号码格式不正确', 'status': 0, 'data': None, 'code': '20109'}</t>
+  </si>
+  <si>
+    <t>{'code': '20109', 'msg': '手机号码格式不正确', 'status': 0, 'data': None}</t>
   </si>
   <si>
     <t>登录</t>
@@ -108,7 +117,10 @@
     <t>futureloan/mvc/api/member/login</t>
   </si>
   <si>
-    <t>{'status': 1, 'msg': '登录成功', 'code': '10001', 'data': None}</t>
+    <t>{'msg': '登录成功', 'status': 1, 'data': None, 'code': '10001'}</t>
+  </si>
+  <si>
+    <t>{'code': '10001', 'msg': '登录成功', 'status': 1, 'data': None}</t>
   </si>
   <si>
     <t>手机号为空</t>
@@ -117,13 +129,49 @@
     <t>{'mobilephone':'','pwd':'123456'}</t>
   </si>
   <si>
-    <t>{'status': 0, 'msg': '手机号不能为空', 'code': '20103', 'data': None}</t>
+    <t>{'msg': '手机号不能为空', 'status': 0, 'data': None, 'code': '20103'}</t>
+  </si>
+  <si>
+    <t>{'code': '20103', 'msg': '手机号不能为空', 'status': 0, 'data': None}</t>
+  </si>
+  <si>
+    <t>充值</t>
+  </si>
+  <si>
+    <t>充值-正常充值</t>
+  </si>
+  <si>
+    <t>futureloan/mvc/api/member/recharge</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'13541122222','amount':'1000'}</t>
+  </si>
+  <si>
+    <t>{'msg': '充值成功', 'status': 1, 'data': {'id': '${id}', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'regname': '小蜜蜂', 'type': '1', 'mobilephone': '${first_tel}', 'regtime':'${regtime}', 'leaveamount': '25000.00'}, 'code': '10001'}</t>
+  </si>
+  <si>
+    <t>{'code': '10001', 'msg': '充值成功', 'status': 1, 'data': {'id': 13240, 'regtime': '2018-06-28 23:42:57.0', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'regname': '小蜜蜂', 'leaveamount': '37000.00', 'mobilephone': '13541122222', 'type': '1'}}</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>手机号不存在</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'15901129231','amount':'1000.05'}</t>
+  </si>
+  <si>
+    <t>{'msg': '此手机号对应的会员不存在', 'status': 0, 'data': None, 'code': '20104'}</t>
+  </si>
+  <si>
+    <t>{'code': '20104', 'msg': '此手机号对应的会员不存在', 'status': 0, 'data': None}</t>
   </si>
   <si>
     <t>no_reg_tel</t>
   </si>
   <si>
-    <t>13541122376</t>
+    <t>13541122392</t>
   </si>
   <si>
     <t>expected(期望)</t>
@@ -142,24 +190,6 @@
   </si>
   <si>
     <t>{'mobilephone':'13541122222','pwd':'126'}</t>
-  </si>
-  <si>
-    <t>充值</t>
-  </si>
-  <si>
-    <t>充值-正常充值</t>
-  </si>
-  <si>
-    <t>futureloan/mvc/api/member/recharge</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'13541122222','amount':'1000'}</t>
-  </si>
-  <si>
-    <t>手机号不存在</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'15901129231','amount':'1000.05'}</t>
   </si>
   <si>
     <t>金额小数大于2位</t>
@@ -243,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
@@ -280,6 +310,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -581,10 +614,12 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G7" pane="bottomLeft" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" customHeight="1" defaultRowHeight="34.5" outlineLevelCol="0"/>
@@ -595,9 +630,9 @@
     <col bestFit="1" customWidth="1" max="4" min="4" width="7.5"/>
     <col bestFit="1" customWidth="1" max="5" min="5" style="1" width="38.25"/>
     <col bestFit="1" customWidth="1" max="6" min="6" style="1" width="54.875"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="15.875"/>
-    <col customWidth="1" max="8" min="8" width="57.625"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" width="20.75"/>
+    <col customWidth="1" max="7" min="7" style="1" width="51.25"/>
+    <col customWidth="1" max="8" min="8" width="47.125"/>
+    <col customWidth="1" max="9" min="9" style="1" width="82.625"/>
     <col bestFit="1" customWidth="1" max="10" min="10" width="15.5"/>
     <col bestFit="1" customWidth="1" max="12" min="11" width="18.375"/>
   </cols>
@@ -621,13 +656,13 @@
       <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="12" t="s">
@@ -659,23 +694,23 @@
       <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="n">
-        <v>10001</v>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="J2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row customHeight="1" ht="34.5" r="3" spans="1:12">
@@ -686,7 +721,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>14</v>
@@ -695,17 +730,17 @@
         <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>20103</v>
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="H3" s="13" t="n"/>
-      <c r="I3" s="4" t="s">
-        <v>23</v>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3" s="4" t="n"/>
       <c r="L3" s="4" t="n"/>
@@ -718,7 +753,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>14</v>
@@ -727,17 +762,17 @@
         <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>20109</v>
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H4" s="4" t="n"/>
-      <c r="I4" s="4" t="s">
-        <v>26</v>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4" s="4" t="n"/>
       <c r="L4" s="4" t="n"/>
@@ -747,29 +782,29 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>10001</v>
+      <c r="G5" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H5" s="4" t="n"/>
-      <c r="I5" s="4" t="s">
-        <v>30</v>
+      <c r="I5" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5" s="4" t="n"/>
       <c r="L5" s="4" t="n"/>
@@ -779,32 +814,96 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>20103</v>
+        <v>36</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="H6" s="4" t="n"/>
-      <c r="I6" s="4" t="s">
-        <v>33</v>
+      <c r="I6" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6" s="4" t="n"/>
       <c r="L6" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="81" r="7" spans="1:12">
+      <c r="A7" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="4" t="n"/>
+      <c r="I7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="4" t="n"/>
+      <c r="L7" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="8" spans="1:12">
+      <c r="A8" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="4" t="n"/>
+      <c r="I8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="4" t="n"/>
+      <c r="L8" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -832,10 +931,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -852,8 +951,8 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" customHeight="1" defaultRowHeight="34.5" outlineLevelCol="0"/>
@@ -891,7 +990,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>7</v>
@@ -923,13 +1022,13 @@
         <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>10001</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
@@ -943,7 +1042,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>14</v>
@@ -952,13 +1051,13 @@
         <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>20103</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
@@ -972,7 +1071,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>14</v>
@@ -981,7 +1080,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>20109</v>
@@ -996,19 +1095,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>10001</v>
@@ -1023,19 +1122,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>20103</v>
@@ -1050,19 +1149,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>20111</v>
@@ -1077,19 +1176,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>10001</v>
@@ -1104,7 +1203,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>46</v>
@@ -1113,7 +1212,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>47</v>
@@ -1131,19 +1230,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G10" s="4" t="n">
         <v>20116</v>

--- a/auto_infterface_case/test_data/test_case.xlsx
+++ b/auto_infterface_case/test_data/test_case.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
   <si>
     <t>case_id</t>
   </si>
@@ -75,9 +75,6 @@
     <t>{"sql":"select count(*) from member where mobilephone=${no_reg_tel}","expected":"(1,)"}</t>
   </si>
   <si>
-    <t>{'code': '10001', 'msg': '注册成功', 'status': 1, 'data': None}</t>
-  </si>
-  <si>
     <t>PASS</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>{'msg': '密码不能为空', 'status': 0, 'data': None, 'code': '20103'}</t>
   </si>
   <si>
-    <t>{'code': '20103', 'msg': '密码不能为空', 'status': 0, 'data': None}</t>
-  </si>
-  <si>
     <t>手机格式不正确</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
     <t>{'msg': '手机号码格式不正确', 'status': 0, 'data': None, 'code': '20109'}</t>
   </si>
   <si>
-    <t>{'code': '20109', 'msg': '手机号码格式不正确', 'status': 0, 'data': None}</t>
-  </si>
-  <si>
     <t>登录</t>
   </si>
   <si>
@@ -120,9 +111,6 @@
     <t>{'msg': '登录成功', 'status': 1, 'data': None, 'code': '10001'}</t>
   </si>
   <si>
-    <t>{'code': '10001', 'msg': '登录成功', 'status': 1, 'data': None}</t>
-  </si>
-  <si>
     <t>手机号为空</t>
   </si>
   <si>
@@ -132,9 +120,6 @@
     <t>{'msg': '手机号不能为空', 'status': 0, 'data': None, 'code': '20103'}</t>
   </si>
   <si>
-    <t>{'code': '20103', 'msg': '手机号不能为空', 'status': 0, 'data': None}</t>
-  </si>
-  <si>
     <t>充值</t>
   </si>
   <si>
@@ -144,52 +129,49 @@
     <t>futureloan/mvc/api/member/recharge</t>
   </si>
   <si>
+    <t>{'mobilephone': '${no_reg_tel}','amount':'1000'}</t>
+  </si>
+  <si>
+    <t>{'msg': '充值成功', 'status': 1, 'data': {'id': '${id}', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'regname': '小蜜蜂', 'type': '1', 'mobilephone': '${first_tel}', 'regtime':'${regtime}', 'leaveamount': '1000.00'}, 'code': '10001'}</t>
+  </si>
+  <si>
+    <t>{'msg': '充值成功', 'status': 1, 'data': {'mobilephone': '13541122399', 'leaveamount': '1000.00', 'regname': '小蜜蜂', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'type': '1', 'regtime': '2018-07-26 16:52:53.0', 'id': 17614}, 'code': '10001'}</t>
+  </si>
+  <si>
+    <t>手机号不存在</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'15901129231','amount':'1000.05'}</t>
+  </si>
+  <si>
+    <t>{'msg': '此手机号对应的会员不存在', 'status': 0, 'data': None, 'code': '20104'}</t>
+  </si>
+  <si>
+    <t>no_reg_tel</t>
+  </si>
+  <si>
+    <t>13541122400</t>
+  </si>
+  <si>
+    <t>expected(期望)</t>
+  </si>
+  <si>
+    <t>{'mobilephone': 'first_tel','pwd':'123456'}</t>
+  </si>
+  <si>
+    <t>{"sql":"select count(*) from member where mobilephone=%s","sql_data":"first_tel","expected":"(1,)"}</t>
+  </si>
+  <si>
+    <t>{"sql":"select count(*) from member where mobilephone=%s","sql_data":"","expected":"(0,)"}</t>
+  </si>
+  <si>
+    <t>密码错误</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'13541122222','pwd':'126'}</t>
+  </si>
+  <si>
     <t>{'mobilephone':'13541122222','amount':'1000'}</t>
-  </si>
-  <si>
-    <t>{'msg': '充值成功', 'status': 1, 'data': {'id': '${id}', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'regname': '小蜜蜂', 'type': '1', 'mobilephone': '${first_tel}', 'regtime':'${regtime}', 'leaveamount': '25000.00'}, 'code': '10001'}</t>
-  </si>
-  <si>
-    <t>{'code': '10001', 'msg': '充值成功', 'status': 1, 'data': {'id': 13240, 'regtime': '2018-06-28 23:42:57.0', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'regname': '小蜜蜂', 'leaveamount': '37000.00', 'mobilephone': '13541122222', 'type': '1'}}</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>手机号不存在</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'15901129231','amount':'1000.05'}</t>
-  </si>
-  <si>
-    <t>{'msg': '此手机号对应的会员不存在', 'status': 0, 'data': None, 'code': '20104'}</t>
-  </si>
-  <si>
-    <t>{'code': '20104', 'msg': '此手机号对应的会员不存在', 'status': 0, 'data': None}</t>
-  </si>
-  <si>
-    <t>no_reg_tel</t>
-  </si>
-  <si>
-    <t>13541122392</t>
-  </si>
-  <si>
-    <t>expected(期望)</t>
-  </si>
-  <si>
-    <t>{'mobilephone': 'first_tel','pwd':'123456'}</t>
-  </si>
-  <si>
-    <t>{"sql":"select count(*) from member where mobilephone=%s","sql_data":"first_tel","expected":"(1,)"}</t>
-  </si>
-  <si>
-    <t>{"sql":"select count(*) from member where mobilephone=%s","sql_data":"","expected":"(0,)"}</t>
-  </si>
-  <si>
-    <t>密码错误</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'13541122222','pwd':'126'}</t>
   </si>
   <si>
     <t>金额小数大于2位</t>
@@ -616,10 +598,10 @@
   </sheetPr>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection activeCell="G7" pane="bottomLeft" sqref="G7"/>
+      <selection activeCell="I2" pane="bottomLeft" sqref="I2:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" customHeight="1" defaultRowHeight="34.5" outlineLevelCol="0"/>
@@ -701,16 +683,16 @@
         <v>18</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="L2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row customHeight="1" ht="34.5" r="3" spans="1:12">
@@ -721,7 +703,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>14</v>
@@ -730,17 +712,17 @@
         <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="H3" s="13" t="n"/>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" s="4" t="n"/>
       <c r="L3" s="4" t="n"/>
@@ -753,7 +735,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>14</v>
@@ -762,17 +744,17 @@
         <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H4" s="4" t="n"/>
       <c r="I4" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4" s="4" t="n"/>
       <c r="L4" s="4" t="n"/>
@@ -782,29 +764,29 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H5" s="4" t="n"/>
       <c r="I5" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5" s="4" t="n"/>
       <c r="L5" s="4" t="n"/>
@@ -814,29 +796,29 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H6" s="4" t="n"/>
       <c r="I6" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6" s="4" t="n"/>
       <c r="L6" s="4" t="n"/>
@@ -846,29 +828,29 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H7" s="4" t="n"/>
       <c r="I7" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="K7" s="4" t="n"/>
       <c r="L7" s="4" t="n"/>
@@ -878,29 +860,29 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H8" s="4" t="n"/>
       <c r="I8" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K8" s="4" t="n"/>
       <c r="L8" s="4" t="n"/>
@@ -931,10 +913,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -990,7 +972,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>7</v>
@@ -1022,13 +1004,13 @@
         <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>10001</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
@@ -1042,7 +1024,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>14</v>
@@ -1051,13 +1033,13 @@
         <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>20103</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
@@ -1071,7 +1053,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>14</v>
@@ -1080,7 +1062,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>20109</v>
@@ -1095,19 +1077,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>10001</v>
@@ -1122,19 +1104,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>20103</v>
@@ -1149,19 +1131,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>20111</v>
@@ -1176,19 +1158,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>10001</v>
@@ -1203,19 +1185,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="G9" s="4" t="n">
         <v>20104</v>
@@ -1230,19 +1212,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G10" s="4" t="n">
         <v>20116</v>
